--- a/CameraStationTable.xlsx
+++ b/CameraStationTable.xlsx
@@ -378,7 +378,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
